--- a/mcb-enhancer/production/Bella-BoM.xlsx
+++ b/mcb-enhancer/production/Bella-BoM.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tritronik\Documents\Project\EMMA\PCB\mcb-enhancer\production\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t>Ref</t>
   </si>
@@ -172,6 +177,9 @@
   </si>
   <si>
     <t>IDC2.54-2*5PL</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -230,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -246,6 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -256,6 +265,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -304,7 +316,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,7 +351,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -548,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +575,7 @@
     <col min="7" max="7" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +596,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -600,8 +612,14 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -620,8 +638,11 @@
       <c r="G3" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -637,8 +658,14 @@
       <c r="F4">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -657,8 +684,11 @@
       <c r="G5" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -677,8 +707,11 @@
       <c r="G6" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -694,8 +727,14 @@
       <c r="F7">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -711,8 +750,14 @@
       <c r="F8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -731,8 +776,14 @@
       <c r="G9" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -751,8 +802,11 @@
       <c r="G10" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -772,7 +826,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -791,8 +845,11 @@
       <c r="G12" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -811,8 +868,11 @@
       <c r="G13" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -830,6 +890,9 @@
       </c>
       <c r="G14" s="5" t="s">
         <v>40</v>
+      </c>
+      <c r="I14" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -843,9 +906,14 @@
     <hyperlink ref="G9" r:id="rId7"/>
     <hyperlink ref="G5" r:id="rId8"/>
     <hyperlink ref="G3" r:id="rId9"/>
+    <hyperlink ref="H9" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="G8" r:id="rId12"/>
+    <hyperlink ref="G4" r:id="rId13"/>
+    <hyperlink ref="G2" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>
 
